--- a/2019/Strawberry/Strawberry Report.xlsx
+++ b/2019/Strawberry/Strawberry Report.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\Fishing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Strawberry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604A42BC-F94B-4EDF-9D8B-DEF8CA26A9B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1803C6DA-2B6E-46C9-989A-E77F9BEF1081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{D9BD4EE7-89B8-4A91-A9A0-DE855D7CC1D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{D9BD4EE7-89B8-4A91-A9A0-DE855D7CC1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId3"/>
+    <sheet name="2019" sheetId="4" r:id="rId3"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -150,6 +157,66 @@
   </si>
   <si>
     <t>Hot</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Fishing Report 2019 Strawberry</t>
+  </si>
+  <si>
+    <t>17 Cutthroat 1 Rainbow</t>
+  </si>
+  <si>
+    <t>9 Cutthroat</t>
+  </si>
+  <si>
+    <t>14 Cutthroat</t>
+  </si>
+  <si>
+    <t>7 Cutthroat 2 Rainbow</t>
+  </si>
+  <si>
+    <t>34 Cutthroat 1 Kokanee 2 Rainbow</t>
+  </si>
+  <si>
+    <t>26 Cutthroat 4 Kokanee</t>
+  </si>
+  <si>
+    <t>56 Cutthroat</t>
+  </si>
+  <si>
+    <t>29 Cutthroat</t>
+  </si>
+  <si>
+    <t>44 Cutthroat</t>
+  </si>
+  <si>
+    <t>46 Cutthroat</t>
+  </si>
+  <si>
+    <t>70 Cutthroat</t>
+  </si>
+  <si>
+    <t>60 Cutthroat</t>
+  </si>
+  <si>
+    <t>80 Cutthroat 2 Rainbow</t>
+  </si>
+  <si>
+    <t>6 Cutthroat 1 Kokanee 1 Rainbow</t>
   </si>
 </sst>
 </file>
@@ -268,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,18 +373,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -577,13 +651,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>424</c:v>
+                  <c:v>935</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1023,13 +1097,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>94.013303769401332</c:v>
+                  <c:v>95.799180327868854</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6607538802660753</c:v>
+                  <c:v>1.8442622950819672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.325942350332594</c:v>
+                  <c:v>2.3565573770491803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2669,22 +2743,22 @@
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2738,12 +2812,12 @@
       <c r="E5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2789,7 +2863,7 @@
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2807,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E040CF5-01EE-44DE-B6F0-B55EC364E8F3}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2839,27 +2913,27 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -2944,12 +3018,12 @@
       <c r="J5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3282,7 +3356,7 @@
       <c r="A23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="17" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3297,11 +3371,569 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D85487-2797-4F85-A7ED-72FEE81D374F}">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+    </row>
+    <row r="3" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8">
+        <v>18</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="8">
+        <v>511</v>
+      </c>
+      <c r="O4" s="8">
+        <v>6</v>
+      </c>
+      <c r="P4" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8">
+        <v>9</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8">
+        <v>4</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8">
+        <v>9</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="15">
+        <f>SUM(N4/$L20*100)</f>
+        <v>97.333333333333343</v>
+      </c>
+      <c r="O7" s="15">
+        <f t="shared" ref="O7:P7" si="0">SUM(O4/$L20*100)</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="P7" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5238095238095237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
+        <v>14</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8">
+        <v>14</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <v>13</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8">
+        <v>9</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8">
+        <v>24</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8">
+        <v>37</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8">
+        <v>30</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
+        <v>30</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8">
+        <v>56</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8">
+        <v>31</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8">
+        <v>29</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8">
+        <v>12</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8">
+        <v>44</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8">
+        <v>13</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8">
+        <v>46</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8">
+        <v>5</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8">
+        <v>70</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8">
+        <v>13</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8">
+        <v>60</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8">
+        <v>9</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8">
+        <v>82</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8">
+        <v>29</v>
+      </c>
+      <c r="L19" s="8">
+        <v>8</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="L20" s="10">
+        <f>SUM(L4:L19)</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="11">
+        <f>AVERAGE(L4:L19)</f>
+        <v>32.8125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N5:Q5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365F3388-3A1B-4888-AE09-438B292F593B}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3312,12 +3944,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -3332,25 +3964,25 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f>SUM('2017'!F4+'2018'!K4)</f>
-        <v>424</v>
+        <f>SUM('2017'!F4+'2018'!K4+'2019'!N4)</f>
+        <v>935</v>
       </c>
       <c r="B3" s="8">
-        <f>SUM('2018'!L4)</f>
-        <v>12</v>
+        <f>SUM('2018'!L4+'2019'!O4)</f>
+        <v>18</v>
       </c>
       <c r="C3" s="8">
-        <f>SUM('2017'!G4+'2018'!M4)</f>
-        <v>15</v>
+        <f>SUM('2017'!G4+'2018'!M4+'2019'!P4)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -3366,15 +3998,15 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <f>SUM(A3/$B$8*100)</f>
-        <v>94.013303769401332</v>
+        <v>95.799180327868854</v>
       </c>
       <c r="B6" s="15">
         <f>SUM(B3/$B$8*100)</f>
-        <v>2.6607538802660753</v>
+        <v>1.8442622950819672</v>
       </c>
       <c r="C6" s="15">
         <f>SUM(C3/$B$8*100)</f>
-        <v>3.325942350332594</v>
+        <v>2.3565573770491803</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3382,8 +4014,8 @@
         <v>31</v>
       </c>
       <c r="B8" s="9">
-        <f>SUM('2017'!D6+'2018'!I20)</f>
-        <v>451</v>
+        <f>SUM('2017'!D6+'2018'!I20+'2019'!L20)</f>
+        <v>976</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3391,8 +4023,8 @@
         <v>32</v>
       </c>
       <c r="B9" s="9">
-        <f>SUM('2017'!D7+'2018'!I21)</f>
-        <v>18</v>
+        <f>SUM('2017'!D7+'2018'!I21+'2019'!L21)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3401,14 +4033,14 @@
       </c>
       <c r="B10" s="14">
         <f>SUM(B8/B9)</f>
-        <v>25.055555555555557</v>
+        <v>28.705882352941178</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>40</v>
       </c>
     </row>
